--- a/200530-0-省份与地区测试文件.xlsx
+++ b/200530-0-省份与地区测试文件.xlsx
@@ -7,8 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="省份分布" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="城市分布" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="省份与城市信息" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -346,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -365,626 +364,595 @@
           <t>人数</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>城市</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>人数</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>浙江</t>
+          <t>陕西</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>52</v>
+        <v>32</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>西安</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>江苏</t>
+          <t>重庆</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74</v>
+        <v>22</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>重庆</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>山东</t>
+          <t>辽宁</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>106</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>沈阳</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>北京</t>
+          <t>福建</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>125</v>
+        <v>51</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>大连</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>陕西</t>
+          <t>甘肃</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>锦州</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>重庆</t>
+          <t>湖北</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>77</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>福州</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>辽宁</t>
+          <t>浙江</t>
         </is>
       </c>
       <c r="B8" t="n">
+        <v>85</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>厦门</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>13</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>贵州</t>
+          <t>河南</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>34</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>泉州</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>福建</t>
+          <t>江苏</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16</v>
+        <v>88</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>兰州</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>湖南</t>
+          <t>新疆</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>武汉</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>湖北</t>
+          <t>广西</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>荆州</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>河南</t>
+          <t>广东</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3</v>
+        <v>81</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>宁波</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>新疆</t>
+          <t>山西</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6</v>
+        <v>21</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>温州</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>广东</t>
+          <t>安徽</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>44</v>
+        <v>22</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>杭州</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>山西</t>
+          <t>四川</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>62</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>郑州</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>安徽</t>
+          <t>北京</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>244</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>周口</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>甘肃</t>
+          <t>贵州</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>商丘</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>河北</t>
+          <t>湖南</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>7</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>徐州</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>广西</t>
+          <t>山东</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1</v>
+        <v>22</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>南京</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>四川</t>
+          <t>河北</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B40"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>城市</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>人数</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>杭州</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+        <v>9</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>苏州</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>乌鲁木齐</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>南宁</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>珠海</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>东莞</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>中山</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>晋中</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>蚌埠</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>南充</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>北京</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>鞍山</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>贵阳</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>长沙</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>乌鲁</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>威海</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="D36" t="inlineStr">
         <is>
           <t>扬州</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="E36" t="n">
         <v>10</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>威海</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>北京</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>西安</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>重庆</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>沈阳</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>贵阳</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>泉州</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
+    <row r="37">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>随州</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>长沙</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>武汉</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+    <row r="38">
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>无锡</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>常州</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>芜湖</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
         <v>19</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>随州</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
+    <row r="41">
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>唐山</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>南通</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>宁波</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>商丘</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>苏州</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>无锡</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>徐州</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>常州</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>乌鲁木齐</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>中山</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>东莞</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>珠海</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>晋中</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>芜湖</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>锦州</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>大连</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>厦门</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>福州</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>兰州</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>荆州</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>温州</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>郑州</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>唐山</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>南京</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>南通</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>南宁</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="43">
+      <c r="D43" t="inlineStr">
         <is>
           <t>潍坊</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="E43" t="n">
         <v>14</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>蚌埠</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>南充</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>6</v>
       </c>
     </row>
   </sheetData>
